--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H2">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N2">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.675346126563779</v>
+        <v>9.692663159877334</v>
       </c>
       <c r="R2">
-        <v>33.07811513907401</v>
+        <v>87.23396843889601</v>
       </c>
       <c r="S2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="T2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I3">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J3">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N3">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4617502962926667</v>
+        <v>0.7105826682823334</v>
       </c>
       <c r="R3">
-        <v>4.155752666634001</v>
+        <v>6.395244014541001</v>
       </c>
       <c r="S3">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="T3">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H4">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I4">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J4">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N4">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2454822249995556</v>
+        <v>0.5167190621026667</v>
       </c>
       <c r="R4">
-        <v>2.209340024996</v>
+        <v>4.650471558924001</v>
       </c>
       <c r="S4">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="T4">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H5">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I5">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J5">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N5">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02344022249733333</v>
+        <v>0.008640065138444444</v>
       </c>
       <c r="R5">
-        <v>0.210962002476</v>
+        <v>0.077760586246</v>
       </c>
       <c r="S5">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="T5">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
     </row>
   </sheetData>
